--- a/docs/詳細設計書/詳細設計書_分類情報画面_DB操作②.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_DB操作②.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/CTC/設計/分類情報管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CA73F-4446-2146-8216-CFF4DACEFE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD80DC-B3DB-4B25-8B15-1DFBB1F42431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="-19940" windowWidth="29400" windowHeight="17000" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="14160" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -345,34 +345,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類情報の一覧の確認および、分類情報の新規作成/更新/削除が行える。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -786,12 +758,89 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>分類情報の一覧の確認および、検索(完全一致)が行える。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>カンゼンイッチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTC道菅</t>
+    <rPh sb="3" eb="5">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類情報に関してはDBの category_info テーブルから取得する</t>
+    <rPh sb="0" eb="9">
+      <t>ブンルイジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要修正</t>
+    <rPh sb="0" eb="6">
+      <t>キノウガイヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6行目修正</t>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1352,9 +1401,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,6 +1474,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,16 +2044,16 @@
   </sheetPr>
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
@@ -2061,7 +2110,7 @@
       <c r="AN1" s="57"/>
       <c r="AO1" s="57"/>
     </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2108,7 +2157,7 @@
       <c r="AN2" s="57"/>
       <c r="AO2" s="57"/>
     </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -2131,7 +2180,7 @@
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
       <c r="T3" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U3" s="55"/>
       <c r="V3" s="55"/>
@@ -2145,7 +2194,9 @@
       </c>
       <c r="AC3" s="51"/>
       <c r="AD3" s="51"/>
-      <c r="AE3" s="55"/>
+      <c r="AE3" s="55" t="s">
+        <v>104</v>
+      </c>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
       <c r="AH3" s="55"/>
@@ -2154,12 +2205,14 @@
       </c>
       <c r="AJ3" s="51"/>
       <c r="AK3" s="51"/>
-      <c r="AL3" s="57"/>
+      <c r="AL3" s="56">
+        <v>45607</v>
+      </c>
       <c r="AM3" s="57"/>
       <c r="AN3" s="57"/>
       <c r="AO3" s="57"/>
     </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -2182,7 +2235,7 @@
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U4" s="55"/>
       <c r="V4" s="55"/>
@@ -2206,7 +2259,7 @@
       <c r="AN4" s="57"/>
       <c r="AO4" s="57"/>
     </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="58" t="s">
         <v>10</v>
       </c>
@@ -2255,7 +2308,7 @@
       <c r="AN5" s="58"/>
       <c r="AO5" s="58"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2300,11 +2353,11 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -2321,16 +2374,21 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="6"/>
+      <c r="AM7" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
+      <c r="W8" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -2352,7 +2410,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -2374,7 +2432,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -2396,7 +2454,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -2418,7 +2476,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -2440,7 +2498,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -2462,7 +2520,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -2484,7 +2542,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -2506,7 +2564,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -2528,7 +2586,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -2550,7 +2608,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2593,7 +2651,7 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="58" t="s">
         <v>11</v>
       </c>
@@ -2652,13 +2710,13 @@
       <c r="AN20" s="60"/>
       <c r="AO20" s="60"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="55">
         <v>1</v>
       </c>
       <c r="B21" s="61"/>
       <c r="C21" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2668,20 +2726,20 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L21" s="55"/>
       <c r="M21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="N21" s="20" t="s">
-        <v>97</v>
-      </c>
       <c r="O21" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="17"/>
       <c r="R21" s="18"/>
@@ -2709,7 +2767,7 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="55"/>
       <c r="B22" s="61"/>
       <c r="C22" s="17"/>
@@ -2752,7 +2810,7 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="55"/>
       <c r="B23" s="61"/>
       <c r="C23" s="17"/>
@@ -2795,7 +2853,7 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="17"/>
@@ -2838,7 +2896,7 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="17"/>
@@ -2881,7 +2939,7 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="17"/>
@@ -2924,7 +2982,7 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="17"/>
@@ -2967,7 +3025,7 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="17"/>
@@ -3010,7 +3068,7 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="17"/>
@@ -3053,7 +3111,7 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="17"/>
@@ -3096,7 +3154,7 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="17"/>
@@ -3139,7 +3197,7 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="17"/>
@@ -3182,7 +3240,7 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="62"/>
       <c r="B33" s="62"/>
       <c r="C33" s="1"/>
@@ -3279,8 +3337,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3295,15 +3353,15 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
@@ -3360,7 +3418,7 @@
       <c r="AN1" s="57"/>
       <c r="AO1" s="57"/>
     </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -3407,7 +3465,7 @@
       <c r="AN2" s="57"/>
       <c r="AO2" s="57"/>
     </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -3430,7 +3488,7 @@
       <c r="R3" s="51"/>
       <c r="S3" s="51"/>
       <c r="T3" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U3" s="55"/>
       <c r="V3" s="55"/>
@@ -3458,7 +3516,7 @@
       <c r="AN3" s="57"/>
       <c r="AO3" s="57"/>
     </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -3481,7 +3539,7 @@
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U4" s="55"/>
       <c r="V4" s="55"/>
@@ -3505,14 +3563,14 @@
       <c r="AN4" s="57"/>
       <c r="AO4" s="57"/>
     </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
       <c r="D5" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="71"/>
@@ -3522,7 +3580,7 @@
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -3556,7 +3614,7 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +3661,7 @@
       <c r="AN6" s="58"/>
       <c r="AO6" s="58"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3646,10 +3704,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3690,7 +3748,7 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
       <c r="C9" s="73" t="s">
@@ -3734,7 +3792,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
       <c r="C10" s="76"/>
@@ -3776,7 +3834,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
@@ -3786,7 +3844,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3822,7 +3880,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="22"/>
@@ -3840,7 +3898,7 @@
       </c>
       <c r="N12" s="1"/>
       <c r="P12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R12" s="64"/>
       <c r="S12" s="65"/>
@@ -3867,11 +3925,11 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3887,7 +3945,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="22"/>
@@ -3896,7 +3954,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="1"/>
       <c r="M14" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="63"/>
       <c r="O14" s="63"/>
@@ -3924,7 +3982,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
@@ -3935,7 +3993,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="1"/>
       <c r="M15" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N15" s="63"/>
       <c r="O15" s="63"/>
@@ -3963,7 +4021,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22"/>
@@ -3972,7 +4030,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="1"/>
       <c r="M16" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
@@ -4000,7 +4058,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
@@ -4011,7 +4069,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="1"/>
       <c r="M17" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N17" s="63"/>
       <c r="O17" s="63"/>
@@ -4039,7 +4097,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="22"/>
@@ -4048,7 +4106,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="1"/>
       <c r="M18" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" s="63"/>
       <c r="O18" s="63"/>
@@ -4076,7 +4134,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22"/>
@@ -4085,7 +4143,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
       <c r="M19" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="63"/>
@@ -4113,7 +4171,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="22"/>
@@ -4122,7 +4180,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="1"/>
       <c r="M20" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N20" s="63"/>
       <c r="O20" s="63"/>
@@ -4150,7 +4208,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="22"/>
@@ -4159,7 +4217,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="M21" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
@@ -4187,7 +4245,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="22"/>
@@ -4196,7 +4254,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="1"/>
       <c r="M22" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N22" s="63"/>
       <c r="O22" s="63"/>
@@ -4224,7 +4282,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="22"/>
@@ -4233,7 +4291,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="1"/>
       <c r="M23" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N23" s="63"/>
       <c r="O23" s="63"/>
@@ -4261,7 +4319,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="22"/>
@@ -4279,7 +4337,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="22"/>
@@ -4297,7 +4355,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="22"/>
@@ -4318,7 +4376,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="22"/>
@@ -4343,7 +4401,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="22"/>
@@ -4368,7 +4426,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="22"/>
@@ -4410,7 +4468,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
@@ -4452,7 +4510,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -4494,10 +4552,10 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4538,7 +4596,7 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="7"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
       <c r="C33" s="73" t="s">
@@ -4582,7 +4640,7 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="7"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
       <c r="C34" s="76"/>
@@ -4624,7 +4682,7 @@
       <c r="AM34" s="6"/>
       <c r="AO34" s="7"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
@@ -4634,7 +4692,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="14"/>
       <c r="G35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4670,7 +4728,7 @@
       <c r="AM35" s="6"/>
       <c r="AO35" s="7"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -4688,10 +4746,10 @@
       </c>
       <c r="N36" s="1"/>
       <c r="P36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R36" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S36" s="65"/>
       <c r="T36" s="65"/>
@@ -4717,11 +4775,11 @@
       <c r="AM36" s="6"/>
       <c r="AO36" s="7"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4737,7 +4795,7 @@
       <c r="AM37" s="6"/>
       <c r="AO37" s="7"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="22"/>
@@ -4746,7 +4804,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
       <c r="M38" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N38" s="70"/>
       <c r="O38" s="70"/>
@@ -4774,7 +4832,7 @@
       <c r="AM38" s="6"/>
       <c r="AO38" s="7"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="22" t="s">
@@ -4811,7 +4869,7 @@
       <c r="AM39" s="6"/>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -4846,7 +4904,7 @@
       <c r="AM40" s="6"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="22" t="s">
@@ -4883,7 +4941,7 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="7"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22"/>
@@ -4918,7 +4976,7 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="22"/>
@@ -4953,7 +5011,7 @@
       <c r="AM43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
@@ -4988,7 +5046,7 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
@@ -5023,7 +5081,7 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="22"/>
@@ -5058,7 +5116,7 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="22"/>
@@ -5093,7 +5151,7 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="22"/>
@@ -5111,7 +5169,7 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="22"/>
@@ -5129,7 +5187,7 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="22"/>
@@ -5150,7 +5208,7 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="22"/>
@@ -5175,7 +5233,7 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="22"/>
@@ -5200,7 +5258,7 @@
       <c r="AM52" s="6"/>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="22"/>
@@ -5242,7 +5300,7 @@
       <c r="AM53" s="6"/>
       <c r="AO53" s="7"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33"/>
@@ -5284,7 +5342,7 @@
       <c r="AM54" s="6"/>
       <c r="AO54" s="7"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -5326,10 +5384,10 @@
       <c r="AM55" s="6"/>
       <c r="AO55" s="7"/>
     </row>
-    <row r="56" spans="1:41" ht="20" customHeight="1">
+    <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5370,7 +5428,7 @@
       <c r="AM56" s="6"/>
       <c r="AO56" s="7"/>
     </row>
-    <row r="57" spans="1:41" ht="20" customHeight="1">
+    <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="22"/>
       <c r="B57" s="1"/>
       <c r="C57" s="73" t="s">
@@ -5414,7 +5472,7 @@
       <c r="AM57" s="6"/>
       <c r="AO57" s="7"/>
     </row>
-    <row r="58" spans="1:41" ht="20" customHeight="1">
+    <row r="58" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="22"/>
       <c r="B58" s="1"/>
       <c r="C58" s="76"/>
@@ -5456,7 +5514,7 @@
       <c r="AM58" s="6"/>
       <c r="AO58" s="7"/>
     </row>
-    <row r="59" spans="1:41" ht="20" customHeight="1">
+    <row r="59" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="22"/>
       <c r="B59" s="1"/>
       <c r="C59" s="22" t="s">
@@ -5466,7 +5524,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="14"/>
       <c r="G59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5502,7 +5560,7 @@
       <c r="AM59" s="6"/>
       <c r="AO59" s="7"/>
     </row>
-    <row r="60" spans="1:41" ht="20" customHeight="1">
+    <row r="60" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="22"/>
       <c r="B60" s="1"/>
       <c r="C60" s="22"/>
@@ -5520,7 +5578,7 @@
       </c>
       <c r="N60" s="1"/>
       <c r="P60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R60" s="64"/>
       <c r="S60" s="65"/>
@@ -5547,18 +5605,18 @@
       <c r="AM60" s="6"/>
       <c r="AO60" s="7"/>
     </row>
-    <row r="61" spans="1:41" ht="20" customHeight="1">
+    <row r="61" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A61" s="22"/>
       <c r="B61" s="1"/>
       <c r="C61" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
       <c r="P61" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF61" s="26"/>
       <c r="AG61" s="26"/>
@@ -5570,7 +5628,7 @@
       <c r="AM61" s="6"/>
       <c r="AO61" s="7"/>
     </row>
-    <row r="62" spans="1:41" ht="20" customHeight="1">
+    <row r="62" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A62" s="22"/>
       <c r="B62" s="1"/>
       <c r="C62" s="22"/>
@@ -5579,7 +5637,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
       <c r="M62" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N62" s="70"/>
       <c r="O62" s="70"/>
@@ -5607,7 +5665,7 @@
       <c r="AM62" s="6"/>
       <c r="AO62" s="7"/>
     </row>
-    <row r="63" spans="1:41" ht="20" customHeight="1">
+    <row r="63" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A63" s="22"/>
       <c r="B63" s="1"/>
       <c r="C63" s="22" t="s">
@@ -5618,7 +5676,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
       <c r="M63" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N63" s="70"/>
       <c r="O63" s="70"/>
@@ -5646,7 +5704,7 @@
       <c r="AM63" s="6"/>
       <c r="AO63" s="7"/>
     </row>
-    <row r="64" spans="1:41" ht="20" customHeight="1">
+    <row r="64" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A64" s="22"/>
       <c r="B64" s="1"/>
       <c r="C64" s="22"/>
@@ -5655,7 +5713,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
       <c r="M64" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N64" s="70"/>
       <c r="O64" s="70"/>
@@ -5683,7 +5741,7 @@
       <c r="AM64" s="6"/>
       <c r="AO64" s="7"/>
     </row>
-    <row r="65" spans="1:41" ht="20" customHeight="1">
+    <row r="65" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A65" s="22"/>
       <c r="B65" s="1"/>
       <c r="C65" s="22" t="s">
@@ -5694,7 +5752,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
       <c r="M65" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N65" s="70"/>
       <c r="O65" s="70"/>
@@ -5722,7 +5780,7 @@
       <c r="AM65" s="6"/>
       <c r="AO65" s="7"/>
     </row>
-    <row r="66" spans="1:41" ht="20" customHeight="1">
+    <row r="66" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="1"/>
       <c r="C66" s="22"/>
@@ -5731,7 +5789,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
       <c r="M66" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N66" s="70"/>
       <c r="O66" s="70"/>
@@ -5759,7 +5817,7 @@
       <c r="AM66" s="6"/>
       <c r="AO66" s="7"/>
     </row>
-    <row r="67" spans="1:41" ht="20" customHeight="1">
+    <row r="67" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A67" s="22"/>
       <c r="B67" s="1"/>
       <c r="C67" s="22"/>
@@ -5768,7 +5826,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
       <c r="M67" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N67" s="70"/>
       <c r="O67" s="70"/>
@@ -5796,7 +5854,7 @@
       <c r="AM67" s="6"/>
       <c r="AO67" s="7"/>
     </row>
-    <row r="68" spans="1:41" ht="20" customHeight="1">
+    <row r="68" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A68" s="22"/>
       <c r="B68" s="1"/>
       <c r="C68" s="22"/>
@@ -5805,7 +5863,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
       <c r="M68" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N68" s="70"/>
       <c r="O68" s="70"/>
@@ -5833,7 +5891,7 @@
       <c r="AM68" s="6"/>
       <c r="AO68" s="7"/>
     </row>
-    <row r="69" spans="1:41" ht="20" customHeight="1">
+    <row r="69" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A69" s="22"/>
       <c r="B69" s="1"/>
       <c r="C69" s="22"/>
@@ -5842,7 +5900,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="1"/>
       <c r="M69" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N69" s="70"/>
       <c r="O69" s="70"/>
@@ -5870,7 +5928,7 @@
       <c r="AM69" s="6"/>
       <c r="AO69" s="7"/>
     </row>
-    <row r="70" spans="1:41" ht="20" customHeight="1">
+    <row r="70" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A70" s="22"/>
       <c r="B70" s="1"/>
       <c r="C70" s="22"/>
@@ -5879,7 +5937,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="1"/>
       <c r="M70" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N70" s="70"/>
       <c r="O70" s="70"/>
@@ -5907,7 +5965,7 @@
       <c r="AM70" s="6"/>
       <c r="AO70" s="7"/>
     </row>
-    <row r="71" spans="1:41" ht="20" customHeight="1">
+    <row r="71" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A71" s="22"/>
       <c r="B71" s="1"/>
       <c r="C71" s="22"/>
@@ -5916,7 +5974,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="1"/>
       <c r="M71" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N71" s="70"/>
       <c r="O71" s="70"/>
@@ -5944,7 +6002,7 @@
       <c r="AM71" s="6"/>
       <c r="AO71" s="7"/>
     </row>
-    <row r="72" spans="1:41" ht="20" customHeight="1">
+    <row r="72" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A72" s="22"/>
       <c r="B72" s="1"/>
       <c r="C72" s="22"/>
@@ -5962,7 +6020,7 @@
       <c r="AM72" s="6"/>
       <c r="AO72" s="7"/>
     </row>
-    <row r="73" spans="1:41" ht="20" customHeight="1">
+    <row r="73" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A73" s="22"/>
       <c r="B73" s="1"/>
       <c r="C73" s="22"/>
@@ -5980,7 +6038,7 @@
       <c r="AM73" s="6"/>
       <c r="AO73" s="7"/>
     </row>
-    <row r="74" spans="1:41" ht="20" customHeight="1">
+    <row r="74" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="22"/>
       <c r="B74" s="1"/>
       <c r="C74" s="22"/>
@@ -6001,7 +6059,7 @@
       <c r="AM74" s="6"/>
       <c r="AO74" s="7"/>
     </row>
-    <row r="75" spans="1:41" ht="20" customHeight="1">
+    <row r="75" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A75" s="22"/>
       <c r="B75" s="1"/>
       <c r="C75" s="22"/>
@@ -6026,7 +6084,7 @@
       <c r="AM75" s="6"/>
       <c r="AO75" s="7"/>
     </row>
-    <row r="76" spans="1:41" ht="20" customHeight="1">
+    <row r="76" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A76" s="22"/>
       <c r="B76" s="1"/>
       <c r="C76" s="22"/>
@@ -6051,7 +6109,7 @@
       <c r="AM76" s="6"/>
       <c r="AO76" s="7"/>
     </row>
-    <row r="77" spans="1:41" ht="20" customHeight="1">
+    <row r="77" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="22"/>
       <c r="B77" s="1"/>
       <c r="C77" s="22"/>
@@ -6093,7 +6151,7 @@
       <c r="AM77" s="6"/>
       <c r="AO77" s="7"/>
     </row>
-    <row r="78" spans="1:41" ht="20" customHeight="1">
+    <row r="78" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A78" s="22"/>
       <c r="B78" s="26"/>
       <c r="C78" s="33"/>
@@ -6135,7 +6193,7 @@
       <c r="AM78" s="6"/>
       <c r="AO78" s="7"/>
     </row>
-    <row r="79" spans="1:41" ht="20" customHeight="1">
+    <row r="79" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A79" s="22"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -6177,10 +6235,10 @@
       <c r="AM79" s="6"/>
       <c r="AO79" s="7"/>
     </row>
-    <row r="80" spans="1:41" ht="20" customHeight="1">
+    <row r="80" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A80" s="22"/>
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6221,7 +6279,7 @@
       <c r="AM80" s="6"/>
       <c r="AO80" s="7"/>
     </row>
-    <row r="81" spans="1:41" ht="20" customHeight="1">
+    <row r="81" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A81" s="22"/>
       <c r="B81" s="1"/>
       <c r="C81" s="73" t="s">
@@ -6265,7 +6323,7 @@
       <c r="AM81" s="6"/>
       <c r="AO81" s="7"/>
     </row>
-    <row r="82" spans="1:41" ht="20" customHeight="1">
+    <row r="82" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A82" s="22"/>
       <c r="B82" s="1"/>
       <c r="C82" s="76"/>
@@ -6307,7 +6365,7 @@
       <c r="AM82" s="6"/>
       <c r="AO82" s="7"/>
     </row>
-    <row r="83" spans="1:41" ht="20" customHeight="1">
+    <row r="83" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A83" s="22"/>
       <c r="B83" s="1"/>
       <c r="C83" s="22" t="s">
@@ -6317,7 +6375,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="14"/>
       <c r="G83" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6353,7 +6411,7 @@
       <c r="AM83" s="6"/>
       <c r="AO83" s="7"/>
     </row>
-    <row r="84" spans="1:41" ht="20" customHeight="1">
+    <row r="84" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A84" s="22"/>
       <c r="B84" s="1"/>
       <c r="C84" s="22"/>
@@ -6371,10 +6429,10 @@
       </c>
       <c r="N84" s="1"/>
       <c r="P84" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R84" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S84" s="65"/>
       <c r="T84" s="65"/>
@@ -6398,18 +6456,18 @@
       <c r="AM84" s="6"/>
       <c r="AO84" s="7"/>
     </row>
-    <row r="85" spans="1:41" ht="20" customHeight="1">
+    <row r="85" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A85" s="22"/>
       <c r="B85" s="1"/>
       <c r="C85" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="14"/>
       <c r="G85" s="1"/>
       <c r="P85" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF85" s="26"/>
       <c r="AG85" s="26"/>
@@ -6421,7 +6479,7 @@
       <c r="AM85" s="6"/>
       <c r="AO85" s="7"/>
     </row>
-    <row r="86" spans="1:41" ht="20" customHeight="1">
+    <row r="86" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A86" s="22"/>
       <c r="B86" s="1"/>
       <c r="C86" s="22"/>
@@ -6430,7 +6488,7 @@
       <c r="F86" s="14"/>
       <c r="G86" s="1"/>
       <c r="M86" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N86" s="70"/>
       <c r="O86" s="70"/>
@@ -6458,7 +6516,7 @@
       <c r="AM86" s="6"/>
       <c r="AO86" s="7"/>
     </row>
-    <row r="87" spans="1:41" ht="20" customHeight="1">
+    <row r="87" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A87" s="22"/>
       <c r="B87" s="1"/>
       <c r="C87" s="22" t="s">
@@ -6469,7 +6527,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="1"/>
       <c r="M87" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N87" s="70"/>
       <c r="O87" s="70"/>
@@ -6497,7 +6555,7 @@
       <c r="AM87" s="6"/>
       <c r="AO87" s="7"/>
     </row>
-    <row r="88" spans="1:41" ht="20" customHeight="1">
+    <row r="88" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A88" s="22"/>
       <c r="B88" s="1"/>
       <c r="C88" s="22"/>
@@ -6506,7 +6564,7 @@
       <c r="F88" s="14"/>
       <c r="G88" s="1"/>
       <c r="M88" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N88" s="70"/>
       <c r="O88" s="70"/>
@@ -6534,7 +6592,7 @@
       <c r="AM88" s="6"/>
       <c r="AO88" s="7"/>
     </row>
-    <row r="89" spans="1:41" ht="20" customHeight="1">
+    <row r="89" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A89" s="22"/>
       <c r="B89" s="1"/>
       <c r="C89" s="22" t="s">
@@ -6545,7 +6603,7 @@
       <c r="F89" s="14"/>
       <c r="G89" s="1"/>
       <c r="M89" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N89" s="70"/>
       <c r="O89" s="70"/>
@@ -6573,7 +6631,7 @@
       <c r="AM89" s="6"/>
       <c r="AO89" s="7"/>
     </row>
-    <row r="90" spans="1:41" ht="20" customHeight="1">
+    <row r="90" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A90" s="22"/>
       <c r="B90" s="1"/>
       <c r="C90" s="22"/>
@@ -6582,7 +6640,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="1"/>
       <c r="M90" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N90" s="70"/>
       <c r="O90" s="70"/>
@@ -6610,7 +6668,7 @@
       <c r="AM90" s="6"/>
       <c r="AO90" s="7"/>
     </row>
-    <row r="91" spans="1:41" ht="20" customHeight="1">
+    <row r="91" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A91" s="22"/>
       <c r="B91" s="1"/>
       <c r="C91" s="22"/>
@@ -6619,7 +6677,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="1"/>
       <c r="M91" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N91" s="70"/>
       <c r="O91" s="70"/>
@@ -6647,7 +6705,7 @@
       <c r="AM91" s="6"/>
       <c r="AO91" s="7"/>
     </row>
-    <row r="92" spans="1:41" ht="20" customHeight="1">
+    <row r="92" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A92" s="22"/>
       <c r="B92" s="1"/>
       <c r="C92" s="22"/>
@@ -6656,7 +6714,7 @@
       <c r="F92" s="14"/>
       <c r="G92" s="1"/>
       <c r="M92" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N92" s="70"/>
       <c r="O92" s="70"/>
@@ -6684,7 +6742,7 @@
       <c r="AM92" s="6"/>
       <c r="AO92" s="7"/>
     </row>
-    <row r="93" spans="1:41" ht="20" customHeight="1">
+    <row r="93" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A93" s="22"/>
       <c r="B93" s="1"/>
       <c r="C93" s="22"/>
@@ -6693,7 +6751,7 @@
       <c r="F93" s="14"/>
       <c r="G93" s="1"/>
       <c r="M93" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N93" s="70"/>
       <c r="O93" s="70"/>
@@ -6721,7 +6779,7 @@
       <c r="AM93" s="6"/>
       <c r="AO93" s="7"/>
     </row>
-    <row r="94" spans="1:41" ht="20" customHeight="1">
+    <row r="94" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A94" s="22"/>
       <c r="B94" s="1"/>
       <c r="C94" s="22"/>
@@ -6730,7 +6788,7 @@
       <c r="F94" s="14"/>
       <c r="G94" s="1"/>
       <c r="M94" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N94" s="70"/>
       <c r="O94" s="70"/>
@@ -6758,7 +6816,7 @@
       <c r="AM94" s="6"/>
       <c r="AO94" s="7"/>
     </row>
-    <row r="95" spans="1:41" ht="20" customHeight="1">
+    <row r="95" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A95" s="22"/>
       <c r="B95" s="1"/>
       <c r="C95" s="22"/>
@@ -6767,7 +6825,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="1"/>
       <c r="M95" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N95" s="70"/>
       <c r="O95" s="70"/>
@@ -6795,7 +6853,7 @@
       <c r="AM95" s="6"/>
       <c r="AO95" s="7"/>
     </row>
-    <row r="96" spans="1:41" ht="20" customHeight="1">
+    <row r="96" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A96" s="22"/>
       <c r="B96" s="1"/>
       <c r="C96" s="22"/>
@@ -6813,7 +6871,7 @@
       <c r="AM96" s="6"/>
       <c r="AO96" s="7"/>
     </row>
-    <row r="97" spans="1:41" ht="20" customHeight="1">
+    <row r="97" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A97" s="22"/>
       <c r="B97" s="1"/>
       <c r="C97" s="22"/>
@@ -6831,7 +6889,7 @@
       <c r="AM97" s="6"/>
       <c r="AO97" s="7"/>
     </row>
-    <row r="98" spans="1:41" ht="20" customHeight="1">
+    <row r="98" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A98" s="22"/>
       <c r="B98" s="1"/>
       <c r="C98" s="22"/>
@@ -6852,7 +6910,7 @@
       <c r="AM98" s="6"/>
       <c r="AO98" s="7"/>
     </row>
-    <row r="99" spans="1:41" ht="20" customHeight="1">
+    <row r="99" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A99" s="22"/>
       <c r="B99" s="1"/>
       <c r="C99" s="22"/>
@@ -6877,7 +6935,7 @@
       <c r="AM99" s="6"/>
       <c r="AO99" s="7"/>
     </row>
-    <row r="100" spans="1:41" ht="20" customHeight="1">
+    <row r="100" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A100" s="22"/>
       <c r="B100" s="1"/>
       <c r="C100" s="22"/>
@@ -6902,7 +6960,7 @@
       <c r="AM100" s="6"/>
       <c r="AO100" s="7"/>
     </row>
-    <row r="101" spans="1:41" ht="20" customHeight="1">
+    <row r="101" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A101" s="22"/>
       <c r="B101" s="1"/>
       <c r="C101" s="22"/>
@@ -6944,7 +7002,7 @@
       <c r="AM101" s="6"/>
       <c r="AO101" s="7"/>
     </row>
-    <row r="102" spans="1:41" ht="20" customHeight="1">
+    <row r="102" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A102" s="22"/>
       <c r="B102" s="26"/>
       <c r="C102" s="33"/>
@@ -6986,7 +7044,7 @@
       <c r="AM102" s="6"/>
       <c r="AO102" s="7"/>
     </row>
-    <row r="103" spans="1:41" ht="20" customHeight="1">
+    <row r="103" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A103" s="22"/>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -7028,10 +7086,10 @@
       <c r="AM103" s="6"/>
       <c r="AO103" s="7"/>
     </row>
-    <row r="104" spans="1:41" ht="20" customHeight="1">
+    <row r="104" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A104" s="22"/>
       <c r="B104" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7072,7 +7130,7 @@
       <c r="AM104" s="6"/>
       <c r="AO104" s="7"/>
     </row>
-    <row r="105" spans="1:41" ht="20" customHeight="1">
+    <row r="105" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A105" s="22"/>
       <c r="B105" s="1"/>
       <c r="C105" s="73" t="s">
@@ -7116,7 +7174,7 @@
       <c r="AM105" s="6"/>
       <c r="AO105" s="7"/>
     </row>
-    <row r="106" spans="1:41" ht="20" customHeight="1">
+    <row r="106" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A106" s="22"/>
       <c r="B106" s="1"/>
       <c r="C106" s="76"/>
@@ -7158,7 +7216,7 @@
       <c r="AM106" s="6"/>
       <c r="AO106" s="7"/>
     </row>
-    <row r="107" spans="1:41" ht="20" customHeight="1">
+    <row r="107" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A107" s="22"/>
       <c r="B107" s="1"/>
       <c r="C107" s="22" t="s">
@@ -7168,7 +7226,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="14"/>
       <c r="G107" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -7204,7 +7262,7 @@
       <c r="AM107" s="6"/>
       <c r="AO107" s="7"/>
     </row>
-    <row r="108" spans="1:41" ht="20" customHeight="1">
+    <row r="108" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A108" s="22"/>
       <c r="B108" s="1"/>
       <c r="C108" s="22"/>
@@ -7222,10 +7280,10 @@
       </c>
       <c r="N108" s="1"/>
       <c r="P108" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R108" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S108" s="65"/>
       <c r="T108" s="65"/>
@@ -7252,11 +7310,11 @@
       <c r="AM108" s="6"/>
       <c r="AO108" s="7"/>
     </row>
-    <row r="109" spans="1:41" ht="20" customHeight="1">
+    <row r="109" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A109" s="22"/>
       <c r="B109" s="1"/>
       <c r="C109" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -7275,7 +7333,7 @@
       <c r="AM109" s="6"/>
       <c r="AO109" s="7"/>
     </row>
-    <row r="110" spans="1:41" ht="20" customHeight="1">
+    <row r="110" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A110" s="22"/>
       <c r="B110" s="1"/>
       <c r="C110" s="22"/>
@@ -7284,7 +7342,7 @@
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
       <c r="M110" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N110" s="70"/>
       <c r="O110" s="70"/>
@@ -7312,7 +7370,7 @@
       <c r="AM110" s="6"/>
       <c r="AO110" s="7"/>
     </row>
-    <row r="111" spans="1:41" ht="20" customHeight="1">
+    <row r="111" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A111" s="22"/>
       <c r="B111" s="1"/>
       <c r="C111" s="22" t="s">
@@ -7323,7 +7381,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
       <c r="M111" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N111" s="70"/>
       <c r="O111" s="70"/>
@@ -7351,7 +7409,7 @@
       <c r="AM111" s="6"/>
       <c r="AO111" s="7"/>
     </row>
-    <row r="112" spans="1:41" ht="20" customHeight="1">
+    <row r="112" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A112" s="22"/>
       <c r="B112" s="1"/>
       <c r="C112" s="22"/>
@@ -7360,7 +7418,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
       <c r="M112" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N112" s="70"/>
       <c r="O112" s="70"/>
@@ -7388,7 +7446,7 @@
       <c r="AM112" s="6"/>
       <c r="AO112" s="7"/>
     </row>
-    <row r="113" spans="1:41" ht="20" customHeight="1">
+    <row r="113" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A113" s="22"/>
       <c r="B113" s="1"/>
       <c r="C113" s="22" t="s">
@@ -7399,7 +7457,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
       <c r="M113" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N113" s="70"/>
       <c r="O113" s="70"/>
@@ -7427,7 +7485,7 @@
       <c r="AM113" s="6"/>
       <c r="AO113" s="7"/>
     </row>
-    <row r="114" spans="1:41" ht="20" customHeight="1">
+    <row r="114" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A114" s="22"/>
       <c r="B114" s="1"/>
       <c r="C114" s="22"/>
@@ -7436,7 +7494,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
       <c r="M114" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N114" s="70"/>
       <c r="O114" s="70"/>
@@ -7464,7 +7522,7 @@
       <c r="AM114" s="6"/>
       <c r="AO114" s="7"/>
     </row>
-    <row r="115" spans="1:41" ht="20" customHeight="1">
+    <row r="115" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A115" s="22"/>
       <c r="B115" s="1"/>
       <c r="C115" s="22"/>
@@ -7473,7 +7531,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
       <c r="M115" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N115" s="70"/>
       <c r="O115" s="70"/>
@@ -7501,7 +7559,7 @@
       <c r="AM115" s="6"/>
       <c r="AO115" s="7"/>
     </row>
-    <row r="116" spans="1:41" ht="20" customHeight="1">
+    <row r="116" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A116" s="22"/>
       <c r="B116" s="1"/>
       <c r="C116" s="22"/>
@@ -7510,7 +7568,7 @@
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
       <c r="M116" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N116" s="70"/>
       <c r="O116" s="70"/>
@@ -7538,7 +7596,7 @@
       <c r="AM116" s="6"/>
       <c r="AO116" s="7"/>
     </row>
-    <row r="117" spans="1:41" ht="20" customHeight="1">
+    <row r="117" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A117" s="22"/>
       <c r="B117" s="1"/>
       <c r="C117" s="22"/>
@@ -7547,7 +7605,7 @@
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
       <c r="M117" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N117" s="70"/>
       <c r="O117" s="70"/>
@@ -7575,7 +7633,7 @@
       <c r="AM117" s="6"/>
       <c r="AO117" s="7"/>
     </row>
-    <row r="118" spans="1:41" ht="20" customHeight="1">
+    <row r="118" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A118" s="22"/>
       <c r="B118" s="1"/>
       <c r="C118" s="22"/>
@@ -7584,7 +7642,7 @@
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
       <c r="M118" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N118" s="70"/>
       <c r="O118" s="70"/>
@@ -7612,7 +7670,7 @@
       <c r="AM118" s="6"/>
       <c r="AO118" s="7"/>
     </row>
-    <row r="119" spans="1:41" ht="20" customHeight="1">
+    <row r="119" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A119" s="22"/>
       <c r="B119" s="1"/>
       <c r="C119" s="22"/>
@@ -7621,7 +7679,7 @@
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
       <c r="M119" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N119" s="70"/>
       <c r="O119" s="70"/>
@@ -7649,7 +7707,7 @@
       <c r="AM119" s="6"/>
       <c r="AO119" s="7"/>
     </row>
-    <row r="120" spans="1:41" ht="20" customHeight="1">
+    <row r="120" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A120" s="22"/>
       <c r="B120" s="1"/>
       <c r="C120" s="22"/>
@@ -7667,7 +7725,7 @@
       <c r="AM120" s="6"/>
       <c r="AO120" s="7"/>
     </row>
-    <row r="121" spans="1:41" ht="20" customHeight="1">
+    <row r="121" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A121" s="22"/>
       <c r="B121" s="1"/>
       <c r="C121" s="22"/>
@@ -7685,7 +7743,7 @@
       <c r="AM121" s="6"/>
       <c r="AO121" s="7"/>
     </row>
-    <row r="122" spans="1:41" ht="20" customHeight="1">
+    <row r="122" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A122" s="22"/>
       <c r="B122" s="1"/>
       <c r="C122" s="22"/>
@@ -7713,7 +7771,7 @@
       <c r="AM122" s="6"/>
       <c r="AO122" s="7"/>
     </row>
-    <row r="123" spans="1:41" ht="20" customHeight="1">
+    <row r="123" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A123" s="22"/>
       <c r="B123" s="1"/>
       <c r="C123" s="22"/>
@@ -7745,7 +7803,7 @@
       <c r="AM123" s="6"/>
       <c r="AO123" s="7"/>
     </row>
-    <row r="124" spans="1:41" ht="20" customHeight="1">
+    <row r="124" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A124" s="22"/>
       <c r="B124" s="1"/>
       <c r="C124" s="22"/>
@@ -7776,7 +7834,7 @@
       <c r="AM124" s="6"/>
       <c r="AO124" s="7"/>
     </row>
-    <row r="125" spans="1:41" ht="20" customHeight="1">
+    <row r="125" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A125" s="22"/>
       <c r="B125" s="1"/>
       <c r="C125" s="22"/>
@@ -7818,7 +7876,7 @@
       <c r="AM125" s="6"/>
       <c r="AO125" s="7"/>
     </row>
-    <row r="126" spans="1:41" ht="20" customHeight="1">
+    <row r="126" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A126" s="22"/>
       <c r="B126" s="26"/>
       <c r="C126" s="33"/>
@@ -7860,7 +7918,7 @@
       <c r="AM126" s="6"/>
       <c r="AO126" s="7"/>
     </row>
-    <row r="127" spans="1:41" ht="20" customHeight="1">
+    <row r="127" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A127" s="22"/>
       <c r="B127" s="26"/>
       <c r="C127" s="26"/>
@@ -7902,10 +7960,10 @@
       <c r="AM127" s="6"/>
       <c r="AO127" s="7"/>
     </row>
-    <row r="128" spans="1:41" ht="20" customHeight="1">
+    <row r="128" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A128" s="22"/>
       <c r="B128" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -7946,7 +8004,7 @@
       <c r="AM128" s="6"/>
       <c r="AO128" s="7"/>
     </row>
-    <row r="129" spans="1:41" ht="20" customHeight="1">
+    <row r="129" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A129" s="22"/>
       <c r="B129" s="1"/>
       <c r="C129" s="73" t="s">
@@ -7990,7 +8048,7 @@
       <c r="AM129" s="6"/>
       <c r="AO129" s="7"/>
     </row>
-    <row r="130" spans="1:41" ht="20" customHeight="1">
+    <row r="130" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A130" s="22"/>
       <c r="B130" s="1"/>
       <c r="C130" s="76"/>
@@ -8032,7 +8090,7 @@
       <c r="AM130" s="6"/>
       <c r="AO130" s="7"/>
     </row>
-    <row r="131" spans="1:41" ht="20" customHeight="1">
+    <row r="131" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A131" s="22"/>
       <c r="B131" s="1"/>
       <c r="C131" s="22" t="s">
@@ -8042,7 +8100,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="14"/>
       <c r="G131" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -8078,7 +8136,7 @@
       <c r="AM131" s="6"/>
       <c r="AO131" s="7"/>
     </row>
-    <row r="132" spans="1:41" ht="20" customHeight="1">
+    <row r="132" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A132" s="22"/>
       <c r="B132" s="1"/>
       <c r="C132" s="22"/>
@@ -8096,7 +8154,7 @@
       </c>
       <c r="N132" s="1"/>
       <c r="P132" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R132" s="64"/>
       <c r="S132" s="65"/>
@@ -8124,11 +8182,11 @@
       <c r="AM132" s="6"/>
       <c r="AO132" s="7"/>
     </row>
-    <row r="133" spans="1:41" ht="20" customHeight="1">
+    <row r="133" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A133" s="22"/>
       <c r="B133" s="1"/>
       <c r="C133" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -8144,7 +8202,7 @@
       <c r="AM133" s="6"/>
       <c r="AO133" s="7"/>
     </row>
-    <row r="134" spans="1:41" ht="20" customHeight="1">
+    <row r="134" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A134" s="22"/>
       <c r="B134" s="1"/>
       <c r="C134" s="22"/>
@@ -8153,7 +8211,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="1"/>
       <c r="M134" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N134" s="63"/>
       <c r="O134" s="63"/>
@@ -8181,7 +8239,7 @@
       <c r="AM134" s="6"/>
       <c r="AO134" s="7"/>
     </row>
-    <row r="135" spans="1:41" ht="20" customHeight="1">
+    <row r="135" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A135" s="22"/>
       <c r="B135" s="1"/>
       <c r="C135" s="22" t="s">
@@ -8192,7 +8250,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="1"/>
       <c r="M135" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N135" s="63"/>
       <c r="O135" s="63"/>
@@ -8220,7 +8278,7 @@
       <c r="AM135" s="6"/>
       <c r="AO135" s="7"/>
     </row>
-    <row r="136" spans="1:41" ht="20" customHeight="1">
+    <row r="136" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A136" s="22"/>
       <c r="B136" s="1"/>
       <c r="C136" s="22"/>
@@ -8229,7 +8287,7 @@
       <c r="F136" s="14"/>
       <c r="G136" s="1"/>
       <c r="M136" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N136" s="63"/>
       <c r="O136" s="63"/>
@@ -8257,7 +8315,7 @@
       <c r="AM136" s="6"/>
       <c r="AO136" s="7"/>
     </row>
-    <row r="137" spans="1:41" ht="20" customHeight="1">
+    <row r="137" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A137" s="22"/>
       <c r="B137" s="1"/>
       <c r="C137" s="22" t="s">
@@ -8268,7 +8326,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="1"/>
       <c r="M137" s="63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N137" s="63"/>
       <c r="O137" s="63"/>
@@ -8296,7 +8354,7 @@
       <c r="AM137" s="6"/>
       <c r="AO137" s="7"/>
     </row>
-    <row r="138" spans="1:41" ht="20" customHeight="1">
+    <row r="138" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A138" s="22"/>
       <c r="B138" s="1"/>
       <c r="C138" s="22"/>
@@ -8305,7 +8363,7 @@
       <c r="F138" s="14"/>
       <c r="G138" s="1"/>
       <c r="M138" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N138" s="63"/>
       <c r="O138" s="63"/>
@@ -8333,7 +8391,7 @@
       <c r="AM138" s="6"/>
       <c r="AO138" s="7"/>
     </row>
-    <row r="139" spans="1:41" ht="20" customHeight="1">
+    <row r="139" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A139" s="22"/>
       <c r="B139" s="1"/>
       <c r="C139" s="22"/>
@@ -8342,7 +8400,7 @@
       <c r="F139" s="14"/>
       <c r="G139" s="1"/>
       <c r="M139" s="63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N139" s="63"/>
       <c r="O139" s="63"/>
@@ -8370,7 +8428,7 @@
       <c r="AM139" s="6"/>
       <c r="AO139" s="7"/>
     </row>
-    <row r="140" spans="1:41" ht="20" customHeight="1">
+    <row r="140" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A140" s="22"/>
       <c r="B140" s="1"/>
       <c r="C140" s="22"/>
@@ -8379,7 +8437,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="1"/>
       <c r="M140" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N140" s="63"/>
       <c r="O140" s="63"/>
@@ -8407,7 +8465,7 @@
       <c r="AM140" s="6"/>
       <c r="AO140" s="7"/>
     </row>
-    <row r="141" spans="1:41" ht="20" customHeight="1">
+    <row r="141" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A141" s="22"/>
       <c r="B141" s="1"/>
       <c r="C141" s="22"/>
@@ -8416,7 +8474,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="1"/>
       <c r="M141" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N141" s="63"/>
       <c r="O141" s="63"/>
@@ -8444,7 +8502,7 @@
       <c r="AM141" s="6"/>
       <c r="AO141" s="7"/>
     </row>
-    <row r="142" spans="1:41" ht="20" customHeight="1">
+    <row r="142" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A142" s="22"/>
       <c r="B142" s="1"/>
       <c r="C142" s="22"/>
@@ -8453,7 +8511,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="1"/>
       <c r="M142" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N142" s="63"/>
       <c r="O142" s="63"/>
@@ -8481,7 +8539,7 @@
       <c r="AM142" s="6"/>
       <c r="AO142" s="7"/>
     </row>
-    <row r="143" spans="1:41" ht="20" customHeight="1">
+    <row r="143" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A143" s="22"/>
       <c r="B143" s="1"/>
       <c r="C143" s="22"/>
@@ -8490,7 +8548,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="1"/>
       <c r="M143" s="63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N143" s="63"/>
       <c r="O143" s="63"/>
@@ -8518,7 +8576,7 @@
       <c r="AM143" s="6"/>
       <c r="AO143" s="7"/>
     </row>
-    <row r="144" spans="1:41" ht="20" customHeight="1">
+    <row r="144" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A144" s="22"/>
       <c r="B144" s="1"/>
       <c r="C144" s="22"/>
@@ -8536,7 +8594,7 @@
       <c r="AM144" s="6"/>
       <c r="AO144" s="7"/>
     </row>
-    <row r="145" spans="1:41" ht="20" customHeight="1">
+    <row r="145" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A145" s="22"/>
       <c r="B145" s="1"/>
       <c r="C145" s="22"/>
@@ -8554,7 +8612,7 @@
       <c r="AM145" s="6"/>
       <c r="AO145" s="7"/>
     </row>
-    <row r="146" spans="1:41" ht="20" customHeight="1">
+    <row r="146" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A146" s="22"/>
       <c r="B146" s="1"/>
       <c r="C146" s="22"/>
@@ -8582,7 +8640,7 @@
       <c r="AM146" s="6"/>
       <c r="AO146" s="7"/>
     </row>
-    <row r="147" spans="1:41" ht="20" customHeight="1">
+    <row r="147" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A147" s="22"/>
       <c r="B147" s="1"/>
       <c r="C147" s="22"/>
@@ -8614,7 +8672,7 @@
       <c r="AM147" s="6"/>
       <c r="AO147" s="7"/>
     </row>
-    <row r="148" spans="1:41" ht="20" customHeight="1">
+    <row r="148" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A148" s="22"/>
       <c r="B148" s="1"/>
       <c r="C148" s="22"/>
@@ -8645,7 +8703,7 @@
       <c r="AM148" s="6"/>
       <c r="AO148" s="7"/>
     </row>
-    <row r="149" spans="1:41" ht="20" customHeight="1">
+    <row r="149" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A149" s="22"/>
       <c r="B149" s="1"/>
       <c r="C149" s="22"/>
@@ -8687,7 +8745,7 @@
       <c r="AM149" s="6"/>
       <c r="AO149" s="7"/>
     </row>
-    <row r="150" spans="1:41" ht="20" customHeight="1">
+    <row r="150" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A150" s="22"/>
       <c r="B150" s="26"/>
       <c r="C150" s="33"/>
@@ -8729,7 +8787,7 @@
       <c r="AM150" s="6"/>
       <c r="AO150" s="7"/>
     </row>
-    <row r="151" spans="1:41" ht="20" customHeight="1">
+    <row r="151" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A151" s="22"/>
       <c r="B151" s="26"/>
       <c r="C151" s="26"/>
@@ -8771,7 +8829,7 @@
       <c r="AM151" s="6"/>
       <c r="AO151" s="7"/>
     </row>
-    <row r="152" spans="1:41" ht="20" customHeight="1">
+    <row r="152" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A152" s="22"/>
       <c r="B152" s="26"/>
       <c r="C152" s="26"/>
@@ -8910,7 +8968,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8922,19 +8980,19 @@
   <dimension ref="A1:AO49"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -8949,13 +9007,13 @@
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
       <c r="N1" s="44"/>
-      <c r="O1" s="106" t="s">
+      <c r="O1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="108"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="107"/>
       <c r="T1" s="52" t="s">
         <v>23</v>
       </c>
@@ -8982,14 +9040,14 @@
       </c>
       <c r="AJ1" s="95"/>
       <c r="AK1" s="96"/>
-      <c r="AL1" s="120">
+      <c r="AL1" s="119">
         <v>45566</v>
       </c>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="122"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="121"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -9004,13 +9062,13 @@
       <c r="L2" s="46"/>
       <c r="M2" s="46"/>
       <c r="N2" s="47"/>
-      <c r="O2" s="106" t="s">
+      <c r="O2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="108"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="107"/>
       <c r="T2" s="52" t="s">
         <v>27</v>
       </c>
@@ -9031,12 +9089,12 @@
       <c r="AI2" s="97"/>
       <c r="AJ2" s="98"/>
       <c r="AK2" s="99"/>
-      <c r="AL2" s="123"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="125"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="124"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -9051,29 +9109,31 @@
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
       <c r="N3" s="47"/>
-      <c r="O3" s="106" t="s">
+      <c r="O3" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="108"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="112"/>
+        <v>99</v>
+      </c>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="111"/>
       <c r="AB3" s="94" t="s">
         <v>5</v>
       </c>
       <c r="AC3" s="95"/>
       <c r="AD3" s="96"/>
-      <c r="AE3" s="92"/>
+      <c r="AE3" s="125" t="s">
+        <v>104</v>
+      </c>
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="93"/>
@@ -9082,12 +9142,14 @@
       </c>
       <c r="AJ3" s="95"/>
       <c r="AK3" s="96"/>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-      <c r="AO3" s="102"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
+      <c r="AL3" s="119">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="101"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -9102,23 +9164,23 @@
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="50"/>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="108"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="107"/>
       <c r="T4" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="112"/>
+        <v>98</v>
+      </c>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="111"/>
       <c r="AB4" s="97"/>
       <c r="AC4" s="98"/>
       <c r="AD4" s="99"/>
@@ -9129,19 +9191,19 @@
       <c r="AI4" s="97"/>
       <c r="AJ4" s="98"/>
       <c r="AK4" s="99"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="105"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="104"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="60"/>
       <c r="C5" s="72"/>
       <c r="D5" s="69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" s="70"/>
       <c r="F5" s="71"/>
@@ -9151,7 +9213,7 @@
       <c r="H5" s="60"/>
       <c r="I5" s="72"/>
       <c r="J5" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5" s="70"/>
       <c r="L5" s="70"/>
@@ -9185,17 +9247,19 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
       <c r="D6" s="60"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="59" t="s">
+        <v>107</v>
+      </c>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
@@ -9218,8 +9282,10 @@
       <c r="AB6" s="60"/>
       <c r="AC6" s="60"/>
       <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="59" t="s">
+        <v>109</v>
+      </c>
       <c r="AG6" s="60"/>
       <c r="AH6" s="60"/>
       <c r="AI6" s="60"/>
@@ -9232,14 +9298,14 @@
       <c r="AN6" s="58"/>
       <c r="AO6" s="58"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="21"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -9275,7 +9341,7 @@
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="87"/>
       <c r="B8" s="88"/>
       <c r="C8" s="88"/>
@@ -9316,11 +9382,13 @@
       <c r="AJ8" s="80"/>
       <c r="AK8" s="80"/>
       <c r="AL8" s="86"/>
-      <c r="AM8" s="1"/>
+      <c r="AM8" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="87"/>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
@@ -9363,7 +9431,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="87"/>
       <c r="B10" s="88"/>
       <c r="C10" s="88"/>
@@ -9374,7 +9442,7 @@
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -9408,7 +9476,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="87"/>
       <c r="B11" s="88"/>
       <c r="C11" s="88"/>
@@ -9451,7 +9519,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="87"/>
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
@@ -9463,7 +9531,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
@@ -9496,7 +9564,7 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="79"/>
       <c r="B13" s="80"/>
       <c r="C13" s="80"/>
@@ -9509,7 +9577,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -9541,7 +9609,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="79"/>
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
@@ -9554,7 +9622,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -9586,7 +9654,7 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="79"/>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -9599,7 +9667,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -9631,7 +9699,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="79"/>
       <c r="B16" s="80"/>
       <c r="C16" s="80"/>
@@ -9644,7 +9712,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -9676,7 +9744,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="79"/>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
@@ -9689,7 +9757,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -9721,7 +9789,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -9734,7 +9802,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -9766,7 +9834,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -9779,7 +9847,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="27"/>
       <c r="L19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -9811,7 +9879,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="79"/>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
@@ -9824,7 +9892,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -9856,7 +9924,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="79"/>
       <c r="B21" s="80"/>
       <c r="C21" s="80"/>
@@ -9869,7 +9937,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -9901,7 +9969,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="79"/>
       <c r="B22" s="80"/>
       <c r="C22" s="80"/>
@@ -9914,7 +9982,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -9946,7 +10014,7 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="79"/>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -9989,7 +10057,7 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="79"/>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -10034,7 +10102,7 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="79"/>
       <c r="B25" s="80"/>
       <c r="C25" s="80"/>
@@ -10077,7 +10145,7 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="79"/>
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
@@ -10122,7 +10190,7 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="79"/>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -10134,7 +10202,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -10167,7 +10235,7 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="79"/>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
@@ -10178,26 +10246,26 @@
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="116" t="s">
+      <c r="K28" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="117" t="s">
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="119"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="117"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
+      <c r="X28" s="117"/>
+      <c r="Y28" s="117"/>
+      <c r="Z28" s="118"/>
       <c r="AA28" s="51" t="s">
         <v>40</v>
       </c>
@@ -10216,7 +10284,7 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="79"/>
       <c r="B29" s="80"/>
       <c r="C29" s="80"/>
@@ -10233,7 +10301,7 @@
       <c r="N29" s="82"/>
       <c r="O29" s="82"/>
       <c r="P29" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="84"/>
       <c r="R29" s="84"/>
@@ -10263,7 +10331,7 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="79"/>
       <c r="B30" s="80"/>
       <c r="C30" s="80"/>
@@ -10275,14 +10343,14 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="82"/>
       <c r="M30" s="82"/>
       <c r="N30" s="82"/>
       <c r="O30" s="82"/>
       <c r="P30" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q30" s="84"/>
       <c r="R30" s="84"/>
@@ -10294,12 +10362,12 @@
       <c r="X30" s="84"/>
       <c r="Y30" s="84"/>
       <c r="Z30" s="85"/>
-      <c r="AA30" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB30" s="114"/>
-      <c r="AC30" s="114"/>
-      <c r="AD30" s="115"/>
+      <c r="AA30" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="114"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="80"/>
       <c r="AG30" s="80"/>
@@ -10312,7 +10380,7 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="79"/>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -10361,7 +10429,7 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="79"/>
       <c r="B32" s="80"/>
       <c r="C32" s="80"/>
@@ -10408,7 +10476,7 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="79"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -10455,7 +10523,7 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="79"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -10467,7 +10535,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" s="82"/>
       <c r="M34" s="82"/>
@@ -10502,7 +10570,7 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="79"/>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -10514,7 +10582,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="82"/>
       <c r="M35" s="82"/>
@@ -10549,7 +10617,7 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="14"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="79"/>
       <c r="B36" s="80"/>
       <c r="C36" s="80"/>
@@ -10596,7 +10664,7 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="14"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="79"/>
       <c r="B37" s="80"/>
       <c r="C37" s="80"/>
@@ -10608,7 +10676,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L37" s="82"/>
       <c r="M37" s="82"/>
@@ -10643,7 +10711,7 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="14"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="79"/>
       <c r="B38" s="80"/>
       <c r="C38" s="80"/>
@@ -10655,7 +10723,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L38" s="82"/>
       <c r="M38" s="82"/>
@@ -10690,7 +10758,7 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="14"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="79"/>
       <c r="B39" s="80"/>
       <c r="C39" s="80"/>
@@ -10737,7 +10805,7 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="14"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="79"/>
       <c r="B40" s="80"/>
       <c r="C40" s="80"/>
@@ -10749,7 +10817,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L40" s="82"/>
       <c r="M40" s="82"/>
@@ -10784,7 +10852,7 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="14"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="79"/>
       <c r="B41" s="80"/>
       <c r="C41" s="80"/>
@@ -10831,7 +10899,7 @@
       <c r="AN41" s="1"/>
       <c r="AO41" s="14"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="79"/>
       <c r="B42" s="80"/>
       <c r="C42" s="80"/>
@@ -10874,7 +10942,7 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="14"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="79"/>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -10919,7 +10987,7 @@
       <c r="AN43" s="1"/>
       <c r="AO43" s="14"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="79"/>
       <c r="B44" s="80"/>
       <c r="C44" s="80"/>
@@ -10931,7 +10999,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -10964,7 +11032,7 @@
       <c r="AN44" s="1"/>
       <c r="AO44" s="14"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="79"/>
       <c r="B45" s="80"/>
       <c r="C45" s="80"/>
@@ -11007,7 +11075,7 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="14"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="79"/>
       <c r="B46" s="80"/>
       <c r="C46" s="80"/>
@@ -11050,7 +11118,7 @@
       <c r="AN46" s="1"/>
       <c r="AO46" s="14"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="79"/>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -11093,7 +11161,7 @@
       <c r="AN47" s="1"/>
       <c r="AO47" s="14"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="79"/>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -11136,7 +11204,7 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="14"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="89"/>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
@@ -11180,7 +11248,7 @@
       <c r="AO49" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="149">
     <mergeCell ref="AF43:AL43"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="AF44:AL44"/>
@@ -11217,7 +11285,9 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AE6"/>
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="AF49:AL49"/>
     <mergeCell ref="A35:G35"/>
@@ -11331,6 +11401,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>